--- a/vocales.xlsx
+++ b/vocales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weg/OneDrive - UNED/git-me/vowelFigures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubarcelona-my.sharepoint.com/personal/wendyelvira_ub_edu/Documents/git-me/plotVowels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F8546F4-CCBF-6741-8BAC-672A640E24C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1F8546F4-CCBF-6741-8BAC-672A640E24C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6AA0568-3242-6040-9581-C60DB2F26CBA}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{35F86E88-8262-054F-90B9-90A376232DDB}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
-    <t>vocal</t>
-  </si>
-  <si>
     <t>f1</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>vowel</t>
   </si>
 </sst>
 </file>
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +165,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -271,7 +271,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -423,9 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB037ED-71B6-394C-A570-FB2EFCAC516C}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -434,21 +432,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>775</v>
@@ -462,7 +460,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>800</v>
@@ -476,7 +474,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>943</v>
@@ -490,7 +488,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>900</v>
@@ -504,7 +502,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>750</v>
@@ -518,7 +516,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>245</v>
@@ -532,7 +530,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>259</v>
@@ -546,7 +544,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
         <v>283</v>
@@ -560,7 +558,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2">
         <v>260</v>
@@ -574,7 +572,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
         <v>280</v>
@@ -588,7 +586,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
         <v>355</v>
@@ -602,7 +600,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2">
         <v>300</v>
@@ -616,7 +614,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2">
         <v>350</v>
@@ -630,7 +628,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2">
         <v>360</v>
@@ -644,7 +642,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
         <v>370</v>
